--- a/Design and Document/Solve problem DWM1000 tag.xlsx
+++ b/Design and Document/Solve problem DWM1000 tag.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>PROBLEM</t>
   </si>
   <si>
-    <t>SOLVE</t>
-  </si>
-  <si>
     <t>STT</t>
   </si>
   <si>
@@ -52,6 +49,15 @@
   </si>
   <si>
     <t>sleep mode chưa tối ưu</t>
+  </si>
+  <si>
+    <t>Chưa OTA</t>
+  </si>
+  <si>
+    <t>chưa upload từ xa cho hệ thống nhiều tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chất lượng đế pin đang dùng </t>
   </si>
 </sst>
 </file>
@@ -75,10 +81,36 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -87,8 +119,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,7 +415,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -389,61 +423,82 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="45.453125" customWidth="1"/>
+    <col min="2" max="2" width="57.54296875" customWidth="1"/>
     <col min="3" max="3" width="41.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
